--- a/Pomiary_SYS_DIA.xlsx
+++ b/Pomiary_SYS_DIA.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\PycharmProjects\blood_pressure_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F976E843-15FD-4637-9C9E-563DB5C65AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9572C7-A836-4D5E-8CC5-EE88F9D2B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1068" windowWidth="17724" windowHeight="14400" xr2:uid="{8ECF50D0-7F8A-44A1-A98D-A72B22A3D8F2}"/>
+    <workbookView xWindow="14712" yWindow="3648" windowWidth="14148" windowHeight="11328" xr2:uid="{8ECF50D0-7F8A-44A1-A98D-A72B22A3D8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$E$60</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +62,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -113,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +149,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,19 +477,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E7332D-E79A-473A-84F2-EAE1ACC73729}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -476,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45946</v>
       </c>
@@ -493,7 +523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45946</v>
       </c>
@@ -510,7 +540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45947</v>
       </c>
@@ -527,7 +557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45947</v>
       </c>
@@ -544,7 +574,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45947</v>
       </c>
@@ -561,7 +591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45947</v>
       </c>
@@ -578,7 +608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45947</v>
       </c>
@@ -595,7 +625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45948</v>
       </c>
@@ -612,7 +642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45948</v>
       </c>
@@ -629,7 +659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45948</v>
       </c>
@@ -646,7 +676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45948</v>
       </c>
@@ -663,7 +693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45948</v>
       </c>
@@ -680,7 +710,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45949</v>
       </c>
@@ -697,7 +727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>45949</v>
       </c>
@@ -714,7 +744,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>45949</v>
       </c>
@@ -731,7 +761,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>45949</v>
       </c>
@@ -748,7 +778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>45949</v>
       </c>
@@ -765,7 +795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45950</v>
       </c>
@@ -782,7 +812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45950</v>
       </c>
@@ -799,7 +829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>45950</v>
       </c>
@@ -816,7 +846,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>45950</v>
       </c>
@@ -833,7 +863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>45950</v>
       </c>
@@ -850,7 +880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>45951</v>
       </c>
@@ -867,7 +897,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45951</v>
       </c>
@@ -884,7 +914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45951</v>
       </c>
@@ -901,7 +931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45951</v>
       </c>
@@ -918,7 +948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45951</v>
       </c>
@@ -935,7 +965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45952</v>
       </c>
@@ -952,7 +982,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45952</v>
       </c>
@@ -969,7 +999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45952</v>
       </c>
@@ -986,7 +1016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45952</v>
       </c>
@@ -1003,7 +1033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45952</v>
       </c>
@@ -1020,7 +1050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>45953</v>
       </c>
@@ -1037,7 +1067,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45953</v>
       </c>
@@ -1054,7 +1084,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>45953</v>
       </c>
@@ -1071,7 +1101,1215 @@
         <v>79</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>45954</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C37" s="2">
+        <v>115</v>
+      </c>
+      <c r="D37" s="2">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>45954</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C38" s="2">
+        <v>104</v>
+      </c>
+      <c r="D38" s="2">
+        <v>61</v>
+      </c>
+      <c r="E38" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>45954</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C39" s="2">
+        <v>113</v>
+      </c>
+      <c r="D39" s="2">
+        <v>68</v>
+      </c>
+      <c r="E39" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>45954</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C40" s="2">
+        <v>116</v>
+      </c>
+      <c r="D40" s="2">
+        <v>74</v>
+      </c>
+      <c r="E40" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>45954</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C41" s="2">
+        <v>124</v>
+      </c>
+      <c r="D41" s="2">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>45955</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C42" s="2">
+        <v>108</v>
+      </c>
+      <c r="D42" s="2">
+        <v>70</v>
+      </c>
+      <c r="E42" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>45955</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C43" s="2">
+        <v>102</v>
+      </c>
+      <c r="D43" s="2">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>45955</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C44" s="2">
+        <v>114</v>
+      </c>
+      <c r="D44" s="2">
+        <v>67</v>
+      </c>
+      <c r="E44" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>45955</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C45" s="2">
+        <v>121</v>
+      </c>
+      <c r="D45" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>45956</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C46" s="2">
+        <v>109</v>
+      </c>
+      <c r="D46" s="2">
+        <v>70</v>
+      </c>
+      <c r="E46" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>45956</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C47" s="2">
+        <v>103</v>
+      </c>
+      <c r="D47" s="2">
+        <v>67</v>
+      </c>
+      <c r="E47" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>45956</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C48" s="2">
+        <v>113</v>
+      </c>
+      <c r="D48" s="2">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>45956</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C49" s="2">
+        <v>116</v>
+      </c>
+      <c r="D49" s="2">
+        <v>68</v>
+      </c>
+      <c r="E49" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>45957</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C50" s="2">
+        <v>109</v>
+      </c>
+      <c r="D50" s="2">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>45957</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C51" s="2">
+        <v>111</v>
+      </c>
+      <c r="D51" s="2">
+        <v>67</v>
+      </c>
+      <c r="E51" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>45957</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C52" s="2">
+        <v>101</v>
+      </c>
+      <c r="D52" s="2">
+        <v>66</v>
+      </c>
+      <c r="E52" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>45957</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C53" s="2">
+        <v>104</v>
+      </c>
+      <c r="D53" s="2">
+        <v>68</v>
+      </c>
+      <c r="E53" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>45957</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C54" s="2">
+        <v>112</v>
+      </c>
+      <c r="D54" s="2">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>45958</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C55" s="2">
+        <v>104</v>
+      </c>
+      <c r="D55" s="2">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>45958</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C56" s="2">
+        <v>103</v>
+      </c>
+      <c r="D56" s="2">
+        <v>65</v>
+      </c>
+      <c r="E56" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>45958</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C57" s="2">
+        <v>108</v>
+      </c>
+      <c r="D57" s="2">
+        <v>67</v>
+      </c>
+      <c r="E57" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>45958</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C58" s="2">
+        <v>116</v>
+      </c>
+      <c r="D58" s="2">
+        <v>68</v>
+      </c>
+      <c r="E58" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>45958</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C59" s="2">
+        <v>119</v>
+      </c>
+      <c r="D59" s="2">
+        <v>72</v>
+      </c>
+      <c r="E59" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>45959</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C60" s="2">
+        <v>115</v>
+      </c>
+      <c r="D60" s="2">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>45959</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C61" s="2">
+        <v>114</v>
+      </c>
+      <c r="D61" s="2">
+        <v>75</v>
+      </c>
+      <c r="E61" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>45959</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C62" s="2">
+        <v>121</v>
+      </c>
+      <c r="D62" s="2">
+        <v>72</v>
+      </c>
+      <c r="E62" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>45959</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C63" s="2">
+        <v>113</v>
+      </c>
+      <c r="D63" s="2">
+        <v>65</v>
+      </c>
+      <c r="E63" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>45959</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C64" s="2">
+        <v>133</v>
+      </c>
+      <c r="D64" s="2">
+        <v>73</v>
+      </c>
+      <c r="E64" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>45960</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C65" s="2">
+        <v>108</v>
+      </c>
+      <c r="D65" s="2">
+        <v>67</v>
+      </c>
+      <c r="E65" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>45960</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C66" s="2">
+        <v>112</v>
+      </c>
+      <c r="D66" s="2">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>45960</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C67" s="2">
+        <v>118</v>
+      </c>
+      <c r="D67" s="2">
+        <v>70</v>
+      </c>
+      <c r="E67" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>45960</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C68" s="2">
+        <v>117</v>
+      </c>
+      <c r="D68" s="2">
+        <v>73</v>
+      </c>
+      <c r="E68" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>45961</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C69" s="2">
+        <v>103</v>
+      </c>
+      <c r="D69" s="2">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>45961</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C70" s="2">
+        <v>109</v>
+      </c>
+      <c r="D70" s="2">
+        <v>63</v>
+      </c>
+      <c r="E70" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>45961</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C71" s="2">
+        <v>116</v>
+      </c>
+      <c r="D71" s="2">
+        <v>68</v>
+      </c>
+      <c r="E71" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>45961</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C72" s="2">
+        <v>117</v>
+      </c>
+      <c r="D72" s="2">
+        <v>71</v>
+      </c>
+      <c r="E72" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>45961</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C73" s="2">
+        <v>117</v>
+      </c>
+      <c r="D73" s="2">
+        <v>73</v>
+      </c>
+      <c r="E73" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>45962</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C74" s="2">
+        <v>112</v>
+      </c>
+      <c r="D74" s="2">
+        <v>70</v>
+      </c>
+      <c r="E74" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>45962</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C75" s="2">
+        <v>103</v>
+      </c>
+      <c r="D75" s="2">
+        <v>68</v>
+      </c>
+      <c r="E75" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>45962</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C76" s="2">
+        <v>103</v>
+      </c>
+      <c r="D76" s="2">
+        <v>55</v>
+      </c>
+      <c r="E76" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>45962</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C77" s="2">
+        <v>117</v>
+      </c>
+      <c r="D77" s="2">
+        <v>68</v>
+      </c>
+      <c r="E77" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>45962</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C78" s="2">
+        <v>120</v>
+      </c>
+      <c r="D78" s="2">
+        <v>71</v>
+      </c>
+      <c r="E78" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>45963</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C79" s="2">
+        <v>101</v>
+      </c>
+      <c r="D79" s="2">
+        <v>71</v>
+      </c>
+      <c r="E79" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>45963</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C80" s="2">
+        <v>93</v>
+      </c>
+      <c r="D80" s="2">
+        <v>62</v>
+      </c>
+      <c r="E80" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>45963</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C81" s="2">
+        <v>96</v>
+      </c>
+      <c r="D81" s="2">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>45963</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C82" s="2">
+        <v>117</v>
+      </c>
+      <c r="D82" s="2">
+        <v>70</v>
+      </c>
+      <c r="E82" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>45963</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C83" s="2">
+        <v>117</v>
+      </c>
+      <c r="D83" s="2">
+        <v>74</v>
+      </c>
+      <c r="E83" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>45964</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C84" s="2">
+        <v>113</v>
+      </c>
+      <c r="D84" s="2">
+        <v>66</v>
+      </c>
+      <c r="E84" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>45964</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C85" s="2">
+        <v>98</v>
+      </c>
+      <c r="D85" s="2">
+        <v>63</v>
+      </c>
+      <c r="E85" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>45964</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C86" s="2">
+        <v>108</v>
+      </c>
+      <c r="D86" s="2">
+        <v>61</v>
+      </c>
+      <c r="E86" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>45964</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C87" s="2">
+        <v>111</v>
+      </c>
+      <c r="D87" s="2">
+        <v>70</v>
+      </c>
+      <c r="E87" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>45964</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C88" s="2">
+        <v>130</v>
+      </c>
+      <c r="D88" s="2">
+        <v>74</v>
+      </c>
+      <c r="E88" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>45965</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C89" s="2">
+        <v>106</v>
+      </c>
+      <c r="D89" s="2">
+        <v>67</v>
+      </c>
+      <c r="E89" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>45965</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C90" s="2">
+        <v>115</v>
+      </c>
+      <c r="D90" s="2">
+        <v>72</v>
+      </c>
+      <c r="E90" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>45965</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C91" s="2">
+        <v>115</v>
+      </c>
+      <c r="D91" s="2">
+        <v>65</v>
+      </c>
+      <c r="E91" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>45965</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C92" s="2">
+        <v>122</v>
+      </c>
+      <c r="D92" s="2">
+        <v>66</v>
+      </c>
+      <c r="E92" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>45966</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C93" s="2">
+        <v>118</v>
+      </c>
+      <c r="D93" s="2">
+        <v>67</v>
+      </c>
+      <c r="E93" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>45966</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C94" s="2">
+        <v>106</v>
+      </c>
+      <c r="D94" s="2">
+        <v>61</v>
+      </c>
+      <c r="E94" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>45966</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C95" s="2">
+        <v>118</v>
+      </c>
+      <c r="D95" s="2">
+        <v>67</v>
+      </c>
+      <c r="E95" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>45966</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C96" s="2">
+        <v>114</v>
+      </c>
+      <c r="D96" s="2">
+        <v>70</v>
+      </c>
+      <c r="E96" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>45966</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C97" s="2">
+        <v>123</v>
+      </c>
+      <c r="D97" s="2">
+        <v>75</v>
+      </c>
+      <c r="E97" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>45967</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C98" s="2">
+        <v>117</v>
+      </c>
+      <c r="D98" s="2">
+        <v>73</v>
+      </c>
+      <c r="E98" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>45967</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C99" s="2">
+        <v>111</v>
+      </c>
+      <c r="D99" s="2">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B100" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C100" s="9">
+        <v>125</v>
+      </c>
+      <c r="D100" s="9">
+        <v>66</v>
+      </c>
+      <c r="E100" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>45968</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C101" s="2">
+        <v>115</v>
+      </c>
+      <c r="D101" s="2">
+        <v>68</v>
+      </c>
+      <c r="E101" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>45968</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C102" s="2">
+        <v>116</v>
+      </c>
+      <c r="D102" s="2">
+        <v>59</v>
+      </c>
+      <c r="E102" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>45968</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C103" s="2">
+        <v>135</v>
+      </c>
+      <c r="D103" s="2">
+        <v>76</v>
+      </c>
+      <c r="E103" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>45968</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C104" s="2">
+        <v>122</v>
+      </c>
+      <c r="D104" s="2">
+        <v>73</v>
+      </c>
+      <c r="E104" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>45969</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C105" s="2">
+        <v>116</v>
+      </c>
+      <c r="D105" s="2">
+        <v>68</v>
+      </c>
+      <c r="E105" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>45969</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C106" s="2">
+        <v>112</v>
+      </c>
+      <c r="D106" s="2">
+        <v>72</v>
+      </c>
+      <c r="E106" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <v>45969</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C107" s="2">
+        <v>113</v>
+      </c>
+      <c r="D107" s="2">
+        <v>65</v>
+      </c>
+      <c r="E107" s="2">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E60" xr:uid="{54E7332D-E79A-473A-84F2-EAE1ACC73729}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Pomiary_SYS_DIA.xlsx
+++ b/Pomiary_SYS_DIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\PycharmProjects\blood_pressure_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9572C7-A836-4D5E-8CC5-EE88F9D2B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A916027-64F7-40A6-8D68-69927858AC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14712" yWindow="3648" windowWidth="14148" windowHeight="11328" xr2:uid="{8ECF50D0-7F8A-44A1-A98D-A72B22A3D8F2}"/>
+    <workbookView xWindow="12204" yWindow="3588" windowWidth="18192" windowHeight="11328" xr2:uid="{8ECF50D0-7F8A-44A1-A98D-A72B22A3D8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E7332D-E79A-473A-84F2-EAE1ACC73729}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,6 +2308,244 @@
         <v>65</v>
       </c>
     </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>45969</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C108" s="2">
+        <v>123</v>
+      </c>
+      <c r="D108" s="2">
+        <v>72</v>
+      </c>
+      <c r="E108" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>45970</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C109" s="2">
+        <v>117</v>
+      </c>
+      <c r="D109" s="2">
+        <v>72</v>
+      </c>
+      <c r="E109" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>45970</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C110" s="2">
+        <v>105</v>
+      </c>
+      <c r="D110" s="2">
+        <v>65</v>
+      </c>
+      <c r="E110" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>45970</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C111" s="2">
+        <v>112</v>
+      </c>
+      <c r="D111" s="2">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>45970</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C112" s="2">
+        <v>120</v>
+      </c>
+      <c r="D112" s="2">
+        <v>73</v>
+      </c>
+      <c r="E112" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>45971</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C113" s="2">
+        <v>120</v>
+      </c>
+      <c r="D113" s="2">
+        <v>74</v>
+      </c>
+      <c r="E113" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>45971</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C114" s="2">
+        <v>109</v>
+      </c>
+      <c r="D114" s="2">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>45971</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C115" s="2">
+        <v>115</v>
+      </c>
+      <c r="D115" s="2">
+        <v>71</v>
+      </c>
+      <c r="E115" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>45972</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C116" s="2">
+        <v>115</v>
+      </c>
+      <c r="D116" s="2">
+        <v>66</v>
+      </c>
+      <c r="E116" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>45972</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C117" s="2">
+        <v>106</v>
+      </c>
+      <c r="D117" s="2">
+        <v>63</v>
+      </c>
+      <c r="E117" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>45972</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C118" s="2">
+        <v>113</v>
+      </c>
+      <c r="D118" s="2">
+        <v>72</v>
+      </c>
+      <c r="E118" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>45972</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C119" s="2">
+        <v>114</v>
+      </c>
+      <c r="D119" s="2">
+        <v>67</v>
+      </c>
+      <c r="E119" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>45972</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C120" s="2">
+        <v>125</v>
+      </c>
+      <c r="D120" s="2">
+        <v>70</v>
+      </c>
+      <c r="E120" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>45973</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C121" s="2">
+        <v>103</v>
+      </c>
+      <c r="D121" s="2">
+        <v>66</v>
+      </c>
+      <c r="E121" s="2">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E60" xr:uid="{54E7332D-E79A-473A-84F2-EAE1ACC73729}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pomiary_SYS_DIA.xlsx
+++ b/Pomiary_SYS_DIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\PycharmProjects\blood_pressure_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A916027-64F7-40A6-8D68-69927858AC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04189F81-6C24-41FF-AA94-50741127548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12204" yWindow="3588" windowWidth="18192" windowHeight="11328" xr2:uid="{8ECF50D0-7F8A-44A1-A98D-A72B22A3D8F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8ECF50D0-7F8A-44A1-A98D-A72B22A3D8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E7332D-E79A-473A-84F2-EAE1ACC73729}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,6 +2546,125 @@
         <v>86</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>45973</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C122" s="2">
+        <v>109</v>
+      </c>
+      <c r="D122" s="2">
+        <v>65</v>
+      </c>
+      <c r="E122" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>45973</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C123" s="2">
+        <v>112</v>
+      </c>
+      <c r="D123" s="2">
+        <v>63</v>
+      </c>
+      <c r="E123" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>45973</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C124" s="2">
+        <v>116</v>
+      </c>
+      <c r="D124" s="2">
+        <v>75</v>
+      </c>
+      <c r="E124" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>45973</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C125" s="2">
+        <v>114</v>
+      </c>
+      <c r="D125" s="2">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>45974</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C126" s="2">
+        <v>101</v>
+      </c>
+      <c r="D126" s="2">
+        <v>63</v>
+      </c>
+      <c r="E126" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>45974</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C127" s="2">
+        <v>112</v>
+      </c>
+      <c r="D127" s="2">
+        <v>60</v>
+      </c>
+      <c r="E127" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
+        <v>45974</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C128" s="2">
+        <v>106</v>
+      </c>
+      <c r="D128" s="2">
+        <v>65</v>
+      </c>
+      <c r="E128" s="2">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E60" xr:uid="{54E7332D-E79A-473A-84F2-EAE1ACC73729}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
